--- a/01_Bundestagswahl_2025/data/grid.xlsx
+++ b/01_Bundestagswahl_2025/data/grid.xlsx
@@ -41,7 +41,7 @@
     <t xml:space="preserve">FREIE WÄHLER</t>
   </si>
   <si>
-    <t xml:space="preserve">Trschtzprt</t>
+    <t xml:space="preserve">Tierschutzpartei</t>
   </si>
   <si>
     <t xml:space="preserve">dieBasis</t>
@@ -50,7 +50,7 @@
     <t xml:space="preserve">Die PARTEI</t>
   </si>
   <si>
-    <t xml:space="preserve">DGrchtg-TT</t>
+    <t xml:space="preserve">Die Gerechtigkeitspartei - Team Todenhöfer</t>
   </si>
   <si>
     <t xml:space="preserve">PIRATEN</t>
@@ -62,7 +62,7 @@
     <t xml:space="preserve">ÖDP</t>
   </si>
   <si>
-    <t xml:space="preserve">Vrjngngsfr</t>
+    <t xml:space="preserve">Verjüngungsforschung</t>
   </si>
   <si>
     <t xml:space="preserve">PdH</t>
@@ -77,7 +77,7 @@
     <t xml:space="preserve">MLPD</t>
   </si>
   <si>
-    <t xml:space="preserve">MENSCHLICW</t>
+    <t xml:space="preserve">MENSCHLICHE WELT</t>
   </si>
   <si>
     <t xml:space="preserve">PdF</t>
@@ -89,7 +89,7 @@
     <t xml:space="preserve">BüSo</t>
   </si>
   <si>
-    <t xml:space="preserve">BÜNDNISDEU</t>
+    <t xml:space="preserve">BÜNDNIS DEUTSCHLAND</t>
   </si>
   <si>
     <t xml:space="preserve">BSW</t>
